--- a/Calculations-Project.xlsx
+++ b/Calculations-Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19155" windowHeight="8460"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="C-P" sheetId="1" r:id="rId1"/>
@@ -94,13 +94,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\.mm"/>
     <numFmt numFmtId="179" formatCode="yyyy"/>
   </numFmts>
   <fonts count="21">
@@ -128,13 +128,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +136,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +226,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -227,14 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -244,21 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +291,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,7 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +339,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,6 +369,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,7 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,19 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +531,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,6 +590,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,26 +613,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,7 +624,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,7 +776,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -788,52 +788,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -894,7 +894,10 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -906,6 +909,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -939,15 +945,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F86" totalsRowShown="0">
-  <autoFilter ref="A1:F86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F98" totalsRowShown="0">
+  <autoFilter ref="A1:F98"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="日期"/>
-    <tableColumn id="2" name="起始" dataDxfId="0"/>
-    <tableColumn id="3" name="終止" dataDxfId="1"/>
-    <tableColumn id="4" name="增量" dataDxfId="2"/>
-    <tableColumn id="5" name="增减率" dataDxfId="3"/>
-    <tableColumn id="6" name="大事記"/>
+    <tableColumn id="1" name="日期" dataDxfId="0"/>
+    <tableColumn id="2" name="起始" dataDxfId="1"/>
+    <tableColumn id="3" name="終止" dataDxfId="2"/>
+    <tableColumn id="4" name="增量" dataDxfId="3"/>
+    <tableColumn id="5" name="增减率" dataDxfId="4"/>
+    <tableColumn id="6" name="大事記" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,17 +1217,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.75" style="2"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.75454545454545" style="2"/>
+    <col min="5" max="5" width="10.2545454545455" style="3" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1256,7 +1262,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="9">
-        <f t="shared" ref="D2:D25" si="0">C2-B2+1</f>
+        <f>C2-B2+1</f>
         <v>101</v>
       </c>
       <c r="E2" s="10">
@@ -1266,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:6">
+    <row r="3" ht="28" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -1277,11 +1283,11 @@
         <v>252</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" si="0"/>
+        <f>C3-B3+1</f>
         <v>152</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E3:E25" si="1">(D3-D2)/D2</f>
+        <f>(D3-D2)/D2</f>
         <v>0.504950495049505</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1299,11 +1305,11 @@
         <v>258</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
+        <f>C4-B4+1</f>
         <v>6</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" si="1"/>
+        <f>(D4-D3)/D3</f>
         <v>-0.960526315789474</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1321,11 +1327,11 @@
         <v>294</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" si="0"/>
+        <f>C5-B5+1</f>
         <v>36</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="1"/>
+        <f>(D5-D4)/D4</f>
         <v>5</v>
       </c>
       <c r="F5" s="15"/>
@@ -1341,11 +1347,11 @@
         <v>339</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>C6-B6+1</f>
         <v>41</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" si="1"/>
+        <f>(D6-D5)/D5</f>
         <v>0.138888888888889</v>
       </c>
       <c r="F6" s="11"/>
@@ -1361,11 +1367,11 @@
         <v>381</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="0"/>
+        <f>C7-B7+1</f>
         <v>42</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="1"/>
+        <f>(D7-D6)/D6</f>
         <v>0.024390243902439</v>
       </c>
       <c r="F7" s="15"/>
@@ -1381,11 +1387,11 @@
         <v>398</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>C8-B8+1</f>
         <v>17</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" si="1"/>
+        <f>(D8-D7)/D7</f>
         <v>-0.595238095238095</v>
       </c>
       <c r="F8" s="11"/>
@@ -1401,11 +1407,11 @@
         <v>474</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
+        <f>C9-B9+1</f>
         <v>76</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="1"/>
+        <f>(D9-D8)/D8</f>
         <v>3.47058823529412</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -1423,11 +1429,11 @@
         <v>512</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>C10-B10+1</f>
         <v>38</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="1"/>
+        <f>(D10-D9)/D9</f>
         <v>-0.5</v>
       </c>
       <c r="F10" s="11"/>
@@ -1443,11 +1449,11 @@
         <v>592</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f>C11-B11+1</f>
         <v>80</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="1"/>
+        <f>(D11-D10)/D10</f>
         <v>1.10526315789474</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -1465,11 +1471,11 @@
         <v>654</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <f>C12-B12+1</f>
         <v>62</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="1"/>
+        <f>(D12-D11)/D11</f>
         <v>-0.225</v>
       </c>
       <c r="F12" s="11"/>
@@ -1485,11 +1491,11 @@
         <v>794</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="0"/>
+        <f>C13-B13+1</f>
         <v>140</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="1"/>
+        <f>(D13-D12)/D12</f>
         <v>1.25806451612903</v>
       </c>
       <c r="F13" s="15"/>
@@ -1505,11 +1511,11 @@
         <v>818</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="0"/>
+        <f>C14-B14+1</f>
         <v>24</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="1"/>
+        <f>(D14-D13)/D13</f>
         <v>-0.828571428571429</v>
       </c>
       <c r="F14" s="11"/>
@@ -1525,11 +1531,11 @@
         <v>912</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="0"/>
+        <f>C15-B15+1</f>
         <v>94</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="1"/>
+        <f>(D15-D14)/D14</f>
         <v>2.91666666666667</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -1547,11 +1553,11 @@
         <v>1057</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f>C16-B16+1</f>
         <v>145</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="1"/>
+        <f>(D16-D15)/D15</f>
         <v>0.542553191489362</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -1569,11 +1575,11 @@
         <v>1146</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="0"/>
+        <f>C17-B17+1</f>
         <v>89</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="1"/>
+        <f>(D17-D16)/D16</f>
         <v>-0.386206896551724</v>
       </c>
       <c r="F17" s="15"/>
@@ -1589,11 +1595,11 @@
         <v>1296</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="0"/>
+        <f>C18-B18+1</f>
         <v>150</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="1"/>
+        <f>(D18-D17)/D17</f>
         <v>0.685393258426966</v>
       </c>
       <c r="F18" s="11"/>
@@ -1609,11 +1615,11 @@
         <v>1461</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="0"/>
+        <f>C19-B19+1</f>
         <v>165</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="1"/>
+        <f>(D19-D18)/D18</f>
         <v>0.1</v>
       </c>
       <c r="F19" s="15"/>
@@ -1629,11 +1635,11 @@
         <v>1493</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="0"/>
+        <f>C20-B20+1</f>
         <v>32</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="1"/>
+        <f>(D20-D19)/D19</f>
         <v>-0.806060606060606</v>
       </c>
       <c r="F20" s="11"/>
@@ -1649,11 +1655,11 @@
         <v>1506</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="0"/>
+        <f>C21-B21+1</f>
         <v>13</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="1"/>
+        <f>(D21-D20)/D20</f>
         <v>-0.59375</v>
       </c>
       <c r="F21" s="15"/>
@@ -1669,11 +1675,11 @@
         <v>1610</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
+        <f>C22-B22+1</f>
         <v>104</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="1"/>
+        <f>(D22-D21)/D21</f>
         <v>7</v>
       </c>
       <c r="F22" s="11"/>
@@ -1689,11 +1695,11 @@
         <v>1665</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="0"/>
+        <f>C23-B23+1</f>
         <v>55</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="1"/>
+        <f>(D23-D22)/D22</f>
         <v>-0.471153846153846</v>
       </c>
       <c r="F23" s="15"/>
@@ -1709,11 +1715,11 @@
         <v>1748</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="0"/>
+        <f>C24-B24+1</f>
         <v>83</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="1"/>
+        <f>(D24-D23)/D23</f>
         <v>0.509090909090909</v>
       </c>
       <c r="F24" s="11"/>
@@ -1729,11 +1735,11 @@
         <v>1752</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="0"/>
+        <f>C25-B25+1</f>
         <v>1</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="1"/>
+        <f>(D25-D24)/D24</f>
         <v>-0.987951807228916</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -1805,7 +1811,7 @@
         <v>1758</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" ref="D29:D35" si="2">C29-B29+1</f>
+        <f>C29-B29+1</f>
         <v>10</v>
       </c>
       <c r="E29" s="14">
@@ -1826,11 +1832,11 @@
         <v>1792</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
+        <f>C30-B30+1</f>
         <v>34</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30:E35" si="3">(D30-D29)/D29</f>
+        <f>(D30-D29)/D29</f>
         <v>2.4</v>
       </c>
       <c r="F30" s="11"/>
@@ -1846,11 +1852,11 @@
         <v>1842</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="2"/>
+        <f>C31-B31+1</f>
         <v>50</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="3"/>
+        <f>(D31-D30)/D30</f>
         <v>0.470588235294118</v>
       </c>
       <c r="F31" s="15" t="s">
@@ -1868,11 +1874,11 @@
         <v>1858</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
+        <f>C32-B32+1</f>
         <v>16</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="3"/>
+        <f>(D32-D31)/D31</f>
         <v>-0.68</v>
       </c>
       <c r="F32" s="11"/>
@@ -1888,11 +1894,11 @@
         <v>1896</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="2"/>
+        <f>C33-B33+1</f>
         <v>38</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="3"/>
+        <f>(D33-D32)/D32</f>
         <v>1.375</v>
       </c>
       <c r="F33" s="15"/>
@@ -1908,11 +1914,11 @@
         <v>1936</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
+        <f>C34-B34+1</f>
         <v>40</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="3"/>
+        <f>(D34-D33)/D33</f>
         <v>0.0526315789473684</v>
       </c>
       <c r="F34" s="11"/>
@@ -1928,11 +1934,11 @@
         <v>1968</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="2"/>
+        <f>C35-B35+1</f>
         <v>32</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="3"/>
+        <f>(D35-D34)/D34</f>
         <v>-0.2</v>
       </c>
       <c r="F35" s="15"/>
@@ -2049,7 +2055,7 @@
         <v>2231</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" ref="D41:D80" si="4">C41-B41+1</f>
+        <f>C41-B41+1</f>
         <v>109</v>
       </c>
       <c r="E41" s="14">
@@ -2070,11 +2076,11 @@
         <v>2248</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="4"/>
+        <f>C42-B42+1</f>
         <v>79</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" ref="E42:E80" si="5">(D42-D41)/D41</f>
+        <f>(D42-D41)/D41</f>
         <v>-0.275229357798165</v>
       </c>
       <c r="F42" s="11"/>
@@ -2090,11 +2096,11 @@
         <v>2433</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="4"/>
+        <f>C43-B43+1</f>
         <v>185</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="5"/>
+        <f>(D43-D42)/D42</f>
         <v>1.34177215189873</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -2112,11 +2118,11 @@
         <v>2471</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="4"/>
+        <f>C44-B44+1</f>
         <v>38</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="5"/>
+        <f>(D44-D43)/D43</f>
         <v>-0.794594594594595</v>
       </c>
       <c r="F44" s="11" t="s">
@@ -2134,11 +2140,11 @@
         <v>2538</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="4"/>
+        <f>C45-B45+1</f>
         <v>67</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="5"/>
+        <f>(D45-D44)/D44</f>
         <v>0.763157894736842</v>
       </c>
       <c r="F45" s="15" t="s">
@@ -2156,11 +2162,11 @@
         <v>2666</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="4"/>
+        <f>C46-B46+1</f>
         <v>128</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="5"/>
+        <f>(D46-D45)/D45</f>
         <v>0.91044776119403</v>
       </c>
       <c r="F46" s="11"/>
@@ -2176,11 +2182,11 @@
         <v>2847</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="4"/>
+        <f>C47-B47+1</f>
         <v>181</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="5"/>
+        <f>(D47-D46)/D46</f>
         <v>0.4140625</v>
       </c>
       <c r="F47" s="15"/>
@@ -2196,11 +2202,11 @@
         <v>2950</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="4"/>
+        <f>C48-B48+1</f>
         <v>103</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="5"/>
+        <f>(D48-D47)/D47</f>
         <v>-0.430939226519337</v>
       </c>
       <c r="F48" s="11"/>
@@ -2216,11 +2222,11 @@
         <v>2982</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="4"/>
+        <f>C49-B49+1</f>
         <v>32</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="5"/>
+        <f>(D49-D48)/D48</f>
         <v>-0.689320388349515</v>
       </c>
       <c r="F49" s="15"/>
@@ -2236,11 +2242,11 @@
         <v>3078</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="4"/>
+        <f>C50-B50+1</f>
         <v>96</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="5"/>
+        <f>(D50-D49)/D49</f>
         <v>2</v>
       </c>
       <c r="F50" s="11"/>
@@ -2256,11 +2262,11 @@
         <v>3138</v>
       </c>
       <c r="D51" s="13">
-        <f t="shared" si="4"/>
+        <f>C51-B51+1</f>
         <v>60</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="5"/>
+        <f>(D51-D50)/D50</f>
         <v>-0.375</v>
       </c>
       <c r="F51" s="15"/>
@@ -2276,11 +2282,11 @@
         <v>3181</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="4"/>
+        <f>C52-B52+1</f>
         <v>43</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="5"/>
+        <f>(D52-D51)/D51</f>
         <v>-0.283333333333333</v>
       </c>
       <c r="F52" s="11"/>
@@ -2296,11 +2302,11 @@
         <v>3338</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" si="4"/>
+        <f>C53-B53+1</f>
         <v>157</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="5"/>
+        <f>(D53-D52)/D52</f>
         <v>2.65116279069767</v>
       </c>
       <c r="F53" s="15"/>
@@ -2316,11 +2322,11 @@
         <v>3451</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="4"/>
+        <f>C54-B54+1</f>
         <v>113</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="5"/>
+        <f>(D54-D53)/D53</f>
         <v>-0.280254777070064</v>
       </c>
       <c r="F54" s="11"/>
@@ -2336,11 +2342,11 @@
         <v>3542</v>
       </c>
       <c r="D55" s="13">
-        <f t="shared" si="4"/>
+        <f>C55-B55+1</f>
         <v>91</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="5"/>
+        <f>(D55-D54)/D54</f>
         <v>-0.194690265486726</v>
       </c>
       <c r="F55" s="22"/>
@@ -2356,11 +2362,11 @@
         <v>3692</v>
       </c>
       <c r="D56" s="24">
-        <f t="shared" si="4"/>
+        <f>C56-B56+1</f>
         <v>150</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="5"/>
+        <f>(D56-D55)/D55</f>
         <v>0.648351648351648</v>
       </c>
       <c r="F56" s="25"/>
@@ -2376,11 +2382,11 @@
         <v>3776</v>
       </c>
       <c r="D57" s="21">
-        <f t="shared" si="4"/>
+        <f>C57-B57+1</f>
         <v>84</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="5"/>
+        <f>(D57-D56)/D56</f>
         <v>-0.44</v>
       </c>
       <c r="F57" s="22"/>
@@ -2396,11 +2402,11 @@
         <v>3975</v>
       </c>
       <c r="D58" s="24">
-        <f t="shared" si="4"/>
+        <f>C58-B58+1</f>
         <v>199</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" si="5"/>
+        <f>(D58-D57)/D57</f>
         <v>1.36904761904762</v>
       </c>
       <c r="F58" s="25"/>
@@ -2416,11 +2422,11 @@
         <v>4081</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="4"/>
+        <f>C59-B59+1</f>
         <v>106</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="5"/>
+        <f>(D59-D58)/D58</f>
         <v>-0.467336683417085</v>
       </c>
       <c r="F59" s="22"/>
@@ -2436,11 +2442,11 @@
         <v>4149</v>
       </c>
       <c r="D60" s="24">
-        <f t="shared" si="4"/>
+        <f>C60-B60+1</f>
         <v>68</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" si="5"/>
+        <f>(D60-D59)/D59</f>
         <v>-0.358490566037736</v>
       </c>
       <c r="F60" s="25"/>
@@ -2456,11 +2462,11 @@
         <v>4227</v>
       </c>
       <c r="D61" s="21">
-        <f t="shared" si="4"/>
+        <f>C61-B61+1</f>
         <v>78</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="5"/>
+        <f>(D61-D60)/D60</f>
         <v>0.147058823529412</v>
       </c>
       <c r="F61" s="22"/>
@@ -2476,11 +2482,11 @@
         <v>4308</v>
       </c>
       <c r="D62" s="24">
-        <f t="shared" si="4"/>
+        <f>C62-B62+1</f>
         <v>81</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" si="5"/>
+        <f>(D62-D61)/D61</f>
         <v>0.0384615384615385</v>
       </c>
       <c r="F62" s="25"/>
@@ -2496,11 +2502,11 @@
         <v>4360</v>
       </c>
       <c r="D63" s="21">
-        <f t="shared" si="4"/>
+        <f>C63-B63+1</f>
         <v>52</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="5"/>
+        <f>(D63-D62)/D62</f>
         <v>-0.358024691358025</v>
       </c>
       <c r="F63" s="22"/>
@@ -2516,11 +2522,11 @@
         <v>4420</v>
       </c>
       <c r="D64" s="24">
-        <f t="shared" si="4"/>
+        <f>C64-B64+1</f>
         <v>60</v>
       </c>
       <c r="E64" s="10">
-        <f t="shared" si="5"/>
+        <f>(D64-D63)/D63</f>
         <v>0.153846153846154</v>
       </c>
       <c r="F64" s="25"/>
@@ -2536,11 +2542,11 @@
         <v>4579</v>
       </c>
       <c r="D65" s="21">
-        <f t="shared" si="4"/>
+        <f>C65-B65+1</f>
         <v>159</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="5"/>
+        <f>(D65-D64)/D64</f>
         <v>1.65</v>
       </c>
       <c r="F65" s="22"/>
@@ -2556,11 +2562,11 @@
         <v>4757</v>
       </c>
       <c r="D66" s="24">
-        <f t="shared" si="4"/>
+        <f>C66-B66+1</f>
         <v>178</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="5"/>
+        <f>(D66-D65)/D65</f>
         <v>0.119496855345912</v>
       </c>
       <c r="F66" s="25"/>
@@ -2576,11 +2582,11 @@
         <v>4846</v>
       </c>
       <c r="D67" s="21">
-        <f t="shared" si="4"/>
+        <f>C67-B67+1</f>
         <v>89</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" si="5"/>
+        <f>(D67-D66)/D66</f>
         <v>-0.5</v>
       </c>
       <c r="F67" s="22"/>
@@ -2596,11 +2602,11 @@
         <v>4890</v>
       </c>
       <c r="D68" s="24">
-        <f t="shared" si="4"/>
+        <f>C68-B68+1</f>
         <v>44</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="5"/>
+        <f>(D68-D67)/D67</f>
         <v>-0.50561797752809</v>
       </c>
       <c r="F68" s="25"/>
@@ -2616,11 +2622,11 @@
         <v>4915</v>
       </c>
       <c r="D69" s="21">
-        <f t="shared" si="4"/>
+        <f>C69-B69+1</f>
         <v>25</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="5"/>
+        <f>(D69-D68)/D68</f>
         <v>-0.431818181818182</v>
       </c>
       <c r="F69" s="22"/>
@@ -2636,11 +2642,11 @@
         <v>5064</v>
       </c>
       <c r="D70" s="24">
-        <f t="shared" si="4"/>
+        <f>C70-B70+1</f>
         <v>149</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="5"/>
+        <f>(D70-D69)/D69</f>
         <v>4.96</v>
       </c>
       <c r="F70" s="25"/>
@@ -2656,11 +2662,11 @@
         <v>5178</v>
       </c>
       <c r="D71" s="21">
-        <f t="shared" si="4"/>
+        <f>C71-B71+1</f>
         <v>114</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="5"/>
+        <f>(D71-D70)/D70</f>
         <v>-0.23489932885906</v>
       </c>
       <c r="F71" s="22"/>
@@ -2676,11 +2682,11 @@
         <v>5339</v>
       </c>
       <c r="D72" s="24">
-        <f t="shared" si="4"/>
+        <f>C72-B72+1</f>
         <v>161</v>
       </c>
       <c r="E72" s="10">
-        <f t="shared" si="5"/>
+        <f>(D72-D71)/D71</f>
         <v>0.412280701754386</v>
       </c>
       <c r="F72" s="25"/>
@@ -2696,11 +2702,11 @@
         <v>5425</v>
       </c>
       <c r="D73" s="21">
-        <f t="shared" si="4"/>
+        <f>C73-B73+1</f>
         <v>86</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="5"/>
+        <f>(D73-D72)/D72</f>
         <v>-0.46583850931677</v>
       </c>
       <c r="F73" s="22"/>
@@ -2716,11 +2722,11 @@
         <v>5565</v>
       </c>
       <c r="D74" s="24">
-        <f t="shared" si="4"/>
+        <f>C74-B74+1</f>
         <v>140</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="5"/>
+        <f>(D74-D73)/D73</f>
         <v>0.627906976744186</v>
       </c>
       <c r="F74" s="25"/>
@@ -2736,11 +2742,11 @@
         <v>5567</v>
       </c>
       <c r="D75" s="21">
-        <f t="shared" si="4"/>
+        <f>C75-B75+1</f>
         <v>2</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="5"/>
+        <f>(D75-D74)/D74</f>
         <v>-0.985714285714286</v>
       </c>
       <c r="F75" s="22"/>
@@ -2756,11 +2762,11 @@
         <v>5577</v>
       </c>
       <c r="D76" s="24">
-        <f t="shared" si="4"/>
+        <f>C76-B76+1</f>
         <v>10</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="5"/>
+        <f>(D76-D75)/D75</f>
         <v>4</v>
       </c>
       <c r="F76" s="25"/>
@@ -2776,11 +2782,11 @@
         <v>5595</v>
       </c>
       <c r="D77" s="21">
-        <f t="shared" si="4"/>
+        <f>C77-B77+1</f>
         <v>18</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="5"/>
+        <f>(D77-D76)/D76</f>
         <v>0.8</v>
       </c>
       <c r="F77" s="22"/>
@@ -2796,11 +2802,11 @@
         <v>5639</v>
       </c>
       <c r="D78" s="24">
-        <f t="shared" si="4"/>
+        <f>C78-B78+1</f>
         <v>44</v>
       </c>
       <c r="E78" s="10">
-        <f t="shared" si="5"/>
+        <f>(D78-D77)/D77</f>
         <v>1.44444444444444</v>
       </c>
       <c r="F78" s="25"/>
@@ -2816,11 +2822,11 @@
         <v>5739</v>
       </c>
       <c r="D79" s="21">
-        <f t="shared" si="4"/>
+        <f>C79-B79+1</f>
         <v>100</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="5"/>
+        <f>(D79-D78)/D78</f>
         <v>1.27272727272727</v>
       </c>
       <c r="F79" s="22"/>
@@ -2836,50 +2842,309 @@
         <v>5791</v>
       </c>
       <c r="D80" s="24">
-        <f t="shared" si="4"/>
+        <f>C80-B80+1</f>
         <v>52</v>
       </c>
       <c r="E80" s="10">
-        <f t="shared" si="5"/>
+        <f>(D80-D79)/D79</f>
         <v>-0.48</v>
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:5">
       <c r="A81" s="20">
         <v>45108</v>
       </c>
       <c r="B81" s="2">
         <v>5792</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="C81" s="2">
+        <v>5920</v>
+      </c>
+      <c r="D81" s="21">
+        <f>C81-B81+1</f>
+        <v>129</v>
+      </c>
+      <c r="E81" s="10">
+        <f>(D81-D80)/D80</f>
+        <v>1.48076923076923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="23">
         <v>45139</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="2">
+        <v>5921</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5947</v>
+      </c>
+      <c r="D82" s="24">
+        <f>C82-B82+1</f>
+        <v>27</v>
+      </c>
+      <c r="E82" s="10">
+        <f>(D82-D81)/D81</f>
+        <v>-0.790697674418605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="20">
         <v>45170</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="2">
+        <v>5948</v>
+      </c>
+      <c r="C83" s="2">
+        <v>6050</v>
+      </c>
+      <c r="D83" s="21">
+        <f>C83-B83+1</f>
+        <v>103</v>
+      </c>
+      <c r="E83" s="10">
+        <f>(D83-D82)/D82</f>
+        <v>2.81481481481481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="23">
         <v>45200</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="2">
+        <v>6051</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6099</v>
+      </c>
+      <c r="D84" s="24">
+        <f>C84-B84+1</f>
+        <v>49</v>
+      </c>
+      <c r="E84" s="10">
+        <f>(D84-D83)/D83</f>
+        <v>-0.524271844660194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="20">
         <v>45231</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="2">
+        <v>6100</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6172</v>
+      </c>
+      <c r="D85" s="21">
+        <f>C85-B85+1</f>
+        <v>73</v>
+      </c>
+      <c r="E85" s="10">
+        <f>(D85-D84)/D84</f>
+        <v>0.489795918367347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="23">
         <v>45261</v>
       </c>
+      <c r="B86" s="2">
+        <v>6173</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6267</v>
+      </c>
+      <c r="D86" s="24">
+        <f>C86-B86+1</f>
+        <v>95</v>
+      </c>
+      <c r="E86" s="10">
+        <f>(D86-D85)/D85</f>
+        <v>0.301369863013699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="20">
+        <v>45292</v>
+      </c>
+      <c r="B87" s="2">
+        <v>6268</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6368</v>
+      </c>
+      <c r="D87" s="21">
+        <f>C87-B87+1</f>
+        <v>101</v>
+      </c>
+      <c r="E87" s="10">
+        <f>(D87-D86)/D86</f>
+        <v>0.0631578947368421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="23">
+        <v>45323</v>
+      </c>
+      <c r="B88" s="2">
+        <v>6369</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6403</v>
+      </c>
+      <c r="D88" s="24">
+        <f>C88-B88+1</f>
+        <v>35</v>
+      </c>
+      <c r="E88" s="10">
+        <f>(D88-D87)/D87</f>
+        <v>-0.653465346534653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="20">
+        <v>45352</v>
+      </c>
+      <c r="B89" s="2">
+        <v>6404</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6433</v>
+      </c>
+      <c r="D89" s="21">
+        <f>C89-B89+1</f>
+        <v>30</v>
+      </c>
+      <c r="E89" s="10">
+        <f>(D89-D88)/D88</f>
+        <v>-0.142857142857143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="23">
+        <v>45383</v>
+      </c>
+      <c r="B90" s="2">
+        <v>6434</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="24">
+        <f>C90-B90+1</f>
+        <v>-6433</v>
+      </c>
+      <c r="E90" s="10">
+        <f>(D90-D89)/D89</f>
+        <v>-215.433333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="20">
+        <v>45413</v>
+      </c>
+      <c r="D91" s="21">
+        <f>C91-B91+1</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <f>(D91-D90)/D90</f>
+        <v>-1.00015544846883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="20">
+        <v>45444</v>
+      </c>
+      <c r="D92" s="24">
+        <f>C92-B92+1</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
+        <f>(D92-D91)/D91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="20">
+        <v>45474</v>
+      </c>
+      <c r="D93" s="21">
+        <f>C93-B93+1</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <f>(D93-D92)/D92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="23">
+        <v>45505</v>
+      </c>
+      <c r="D94" s="24">
+        <f>C94-B94+1</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <f>(D94-D93)/D93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="20">
+        <v>45536</v>
+      </c>
+      <c r="D95" s="21">
+        <f>C95-B95+1</f>
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <f>(D95-D94)/D94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="23">
+        <v>45566</v>
+      </c>
+      <c r="D96" s="24">
+        <f>C96-B96+1</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f>(D96-D95)/D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="20">
+        <v>45597</v>
+      </c>
+      <c r="D97" s="21">
+        <f>C97-B97+1</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
+        <f>(D97-D96)/D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="23">
+        <v>45627</v>
+      </c>
+      <c r="D98" s="24">
+        <f>C98-B98+1</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <f>(D98-D97)/D97</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E2 E81:E1048576">
+  <conditionalFormatting sqref="E1:E2 E99:E1048576">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2888,16 +3153,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05c118d3-3509-4153-bed8-01e9dba6af15}</x14:id>
+          <x14:id>{0902eafb-c308-4c2f-b376-793bdfe94138}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E25 E29:E35 E38:E39 E42:E80">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E25 E29:E35 E38:E39 E42:E98">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2911,7 +3176,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{05c118d3-3509-4153-bed8-01e9dba6af15}">
+          <x14:cfRule type="dataBar" id="{0902eafb-c308-4c2f-b376-793bdfe94138}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2921,7 +3186,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E2 E81:E1048576</xm:sqref>
+          <xm:sqref>E1:E2 E99:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
